--- a/biology/Zoologie/Daohugoupterus/Daohugoupterus.xlsx
+++ b/biology/Zoologie/Daohugoupterus/Daohugoupterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daohugoupterus delicatus
-Daohugoupterus est un  genre éteint de ptérosaures non-Pterodactyloidea incertae sedis[1].
-Un seul fossile est connu. Il a été découvert dans les bancs de Daohugou près du village de Daohugou dans la formation de Tiaojishan dans la province chinoise de Mongolie-Intérieure dans le nord du pays. Ces bancs sont datés de la fin du Jurassique moyen il y a environ 164 ± 4 Ma (millions d'années)[2],[3]. La faune qu'il renferme constitue le biote de Yanliao[1].
-Une seule espèce est rattachée au genre : Daohugoupterus delicatus, décrite en 2014 par Xin Cheng, Xiaolin Wang, Shunxing Jiang et Alexander W.A. Kellner[1].
+Daohugoupterus est un  genre éteint de ptérosaures non-Pterodactyloidea incertae sedis.
+Un seul fossile est connu. Il a été découvert dans les bancs de Daohugou près du village de Daohugou dans la formation de Tiaojishan dans la province chinoise de Mongolie-Intérieure dans le nord du pays. Ces bancs sont datés de la fin du Jurassique moyen il y a environ 164 ± 4 Ma (millions d'années),. La faune qu'il renferme constitue le biote de Yanliao.
+Une seule espèce est rattachée au genre : Daohugoupterus delicatus, décrite en 2014 par Xin Cheng, Xiaolin Wang, Shunxing Jiang et Alexander W.A. Kellner.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un spécimen unique, représenté par un squelette partiel comprimé avec des empreintes de tissus mous. Le spécimen est répertorié sous la référence IVPP V12537. Il comprend une partie du torse et de la ceinture pectorale, l'humérus gauche, les deux coracoïdes, l'omoplate droite, la plaque sternale, des vertèbres du cou, des vertèbres dorsales et une partie du crâne et de la mandibule[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un spécimen unique, représenté par un squelette partiel comprimé avec des empreintes de tissus mous. Le spécimen est répertorié sous la référence IVPP V12537. Il comprend une partie du torse et de la ceinture pectorale, l'humérus gauche, les deux coracoïdes, l'omoplate droite, la plaque sternale, des vertèbres du cou, des vertèbres dorsales et une partie du crâne et de la mandibule.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Daohugoupterus est un petit ptérosaure. Son humérus mesure environ 4,2 centimètres de long.
-Deux traits caractéristiques pouvant être considérés comme de possibles autapomorphies ont été décrits[1] :
+Deux traits caractéristiques pouvant être considérés comme de possibles autapomorphies ont été décrits :
 les os nasaux s'étendent profondément aux dépens des os frontaux ;
 le sternum est large, environ 2,5 fois plus large que long.</t>
         </is>
@@ -578,9 +594,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vertèbres cervicales courtes, la présence de côtes cervicales et la morphologie de l'humérus avec une crête delto-pectorale quadrangulaire indiquent que Daohugoupterus est un ptérosaure relativement basal, en dehors des Pterodactyloidea. Il a été placé comme un ptérosaure incertae sedis[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vertèbres cervicales courtes, la présence de côtes cervicales et la morphologie de l'humérus avec une crête delto-pectorale quadrangulaire indiquent que Daohugoupterus est un ptérosaure relativement basal, en dehors des Pterodactyloidea. Il a été placé comme un ptérosaure incertae sedis.
 </t>
         </is>
       </c>
